--- a/track3/Chatbox_baseline实验结果.xlsx
+++ b/track3/Chatbox_baseline实验结果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大数据\DISC\MedicalChatBox\track3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A2C10-E79B-4693-951E-D74AF455BEE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950F527A-FEE7-4A0C-A817-8D322AB525A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8832" xr2:uid="{20BAB6D4-97F3-4315-9C97-D504B2043B5C}"/>
   </bookViews>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -223,10 +231,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -234,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +562,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,32 +578,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -926,13 +934,13 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="K12" s="2">
         <v>0.74019999999999997</v>
       </c>
@@ -989,7 +997,7 @@
         <v>3.46</v>
       </c>
       <c r="E14" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="K14" s="2">
         <v>0.77639999999999998</v>
@@ -1011,14 +1019,14 @@
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="9">
         <v>0.66100000000000003</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>3.53</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.48</v>
+      <c r="E15" s="9">
+        <v>0.42899999999999999</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>12</v>
@@ -1052,14 +1060,14 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>0.67200000000000004</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="9">
         <v>3.4940000000000002</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.51400000000000001</v>
+      <c r="E16" s="9">
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,14 +1075,14 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <v>0.66100000000000003</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <v>3.5329999999999999</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.47899999999999998</v>
+      <c r="E17" s="9">
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,13 +1092,13 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>0.46500000000000002</v>
       </c>
     </row>
@@ -1099,13 +1107,13 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>0.64100000000000001</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>0.432</v>
       </c>
     </row>
@@ -1116,31 +1124,31 @@
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="9">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <v>3.1150000000000002</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="9">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="9">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="9">
         <v>3.1909999999999998</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.44900000000000001</v>
+      <c r="E21" s="9">
+        <v>0.432</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,14 +1158,14 @@
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <v>3.8620000000000001</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.53900000000000003</v>
+      <c r="E22" s="9">
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,14 +1173,14 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="9">
         <v>0.65200000000000002</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="9">
         <v>3.7879999999999998</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.498</v>
+      <c r="E23" s="9">
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,14 +1190,14 @@
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="9">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="9">
         <v>4.1150000000000002</v>
       </c>
-      <c r="E24" s="5">
-        <v>0.56699999999999995</v>
+      <c r="E24" s="9">
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,14 +1205,14 @@
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>0.64300000000000002</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="9">
         <v>3.8929999999999998</v>
       </c>
-      <c r="E25" s="5">
-        <v>0.51100000000000001</v>
+      <c r="E25" s="9">
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
